--- a/テーブル定義書/テーブル定義書_カード情報テーブル.xlsx
+++ b/テーブル定義書/テーブル定義書_カード情報テーブル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\貴媛\Desktop\HAL\2年\SD22\テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48D8AF9-E093-480B-A541-F873ACFBBBED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC34F9E0-232E-4FA9-A4C7-5E7AAE4471C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -299,6 +299,26 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>security_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1073,7 +1093,7 @@
   <dimension ref="A1:BJ120"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3:AR4"/>
+      <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1963,9 @@
       <c r="BJ14" s="7"/>
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.2">
-      <c r="B15" s="38"/>
+      <c r="B15" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="C15" s="39"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -1951,7 +1973,9 @@
       <c r="G15" s="38"/>
       <c r="H15" s="40"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="J15" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
@@ -1962,7 +1986,9 @@
       <c r="R15" s="40"/>
       <c r="S15" s="40"/>
       <c r="T15" s="38"/>
-      <c r="U15" s="40"/>
+      <c r="U15" s="40" t="s">
+        <v>49</v>
+      </c>
       <c r="V15" s="40"/>
       <c r="W15" s="40"/>
       <c r="X15" s="40"/>
@@ -1972,19 +1998,25 @@
       <c r="AB15" s="40"/>
       <c r="AC15" s="39"/>
       <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
+      <c r="AE15" s="40" t="s">
+        <v>50</v>
+      </c>
       <c r="AF15" s="40"/>
       <c r="AG15" s="40"/>
       <c r="AH15" s="40"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="38"/>
       <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
+      <c r="AL15" s="40" t="s">
+        <v>51</v>
+      </c>
       <c r="AM15" s="40"/>
       <c r="AN15" s="40"/>
       <c r="AO15" s="39"/>
       <c r="AP15" s="38"/>
-      <c r="AQ15" s="40"/>
+      <c r="AQ15" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="AR15" s="40"/>
       <c r="AS15" s="40"/>
       <c r="AT15" s="40"/>
@@ -8652,7 +8684,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="40" max="16383" man="1"/>
     <brk id="80" max="62" man="1"/>
